--- a/example_files/pt-br/xlsx/1_aplicacao_threshold/input/input_exemplo.xlsx
+++ b/example_files/pt-br/xlsx/1_aplicacao_threshold/input/input_exemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c0c8761d3d702e/Nossa_Trabalho_OneDrive/CEP/resultados_seq_dez23/dev/analise_metabarcoding/example_files/pt-br/xlsx/1_threshold_application/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c0c8761d3d702e/Nossa_Trabalho_OneDrive/CEP/resultados_seq_dez23/dev/analise_metabarcoding/example_files/pt-br/xlsx/1_aplicacao_threshold/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{750915E5-3FD3-4663-9BF3-25596A26A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC8EEB31-695B-467B-A14B-47F90C6E72B3}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{750915E5-3FD3-4663-9BF3-25596A26A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23B2716-0393-405C-8791-2C1565AC5863}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D191B68D-3CD3-4D97-91AB-70DE429BCBE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D191B68D-3CD3-4D97-91AB-70DE429BCBE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>taxon</t>
   </si>
   <si>
-    <t>otu</t>
-  </si>
-  <si>
     <t>P1_MQ</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>aliquota</t>
+  </si>
+  <si>
+    <t>otu/asv</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <dimension ref="A1:J326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,31 +884,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>75</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -1399,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -1559,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1591,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2">
         <v>3</v>
@@ -1623,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
@@ -1751,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2">
         <v>3</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
@@ -1879,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -1911,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
@@ -1943,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="2">
         <v>3</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2">
         <v>3</v>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
@@ -2167,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
@@ -2199,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -2231,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2">
         <v>4</v>
@@ -2263,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2">
         <v>4</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -2359,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -2391,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2">
         <v>4</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2">
         <v>4</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2">
         <v>4</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
@@ -2551,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2">
         <v>4</v>
@@ -2583,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2">
         <v>4</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
@@ -2647,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2">
         <v>4</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2">
         <v>4</v>
@@ -2711,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="2">
         <v>4</v>
@@ -2743,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2">
         <v>4</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2">
         <v>4</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2">
         <v>4</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2">
         <v>4</v>
@@ -2903,13 +2903,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2">
         <v>4</v>
@@ -2935,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
@@ -2967,13 +2967,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
@@ -2999,13 +2999,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2">
         <v>4</v>
@@ -3031,13 +3031,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
@@ -3063,13 +3063,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2">
         <v>4</v>
@@ -3095,13 +3095,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2">
         <v>4</v>
@@ -3127,13 +3127,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2">
         <v>4</v>
@@ -3159,13 +3159,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2">
         <v>6</v>
@@ -3191,13 +3191,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2">
         <v>6</v>
@@ -3223,13 +3223,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2">
         <v>6</v>
@@ -3255,13 +3255,13 @@
         <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2">
         <v>6</v>
@@ -3287,13 +3287,13 @@
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2">
         <v>6</v>
@@ -3319,13 +3319,13 @@
         <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2">
         <v>6</v>
@@ -3351,13 +3351,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2">
         <v>6</v>
@@ -3383,13 +3383,13 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2">
         <v>6</v>
@@ -3415,13 +3415,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2">
         <v>6</v>
@@ -3447,13 +3447,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2">
         <v>6</v>
@@ -3479,13 +3479,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2">
         <v>6</v>
@@ -3511,13 +3511,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2">
         <v>6</v>
@@ -3543,13 +3543,13 @@
         <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2">
         <v>6</v>
@@ -3575,13 +3575,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2">
         <v>6</v>
@@ -3607,13 +3607,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2">
         <v>6</v>
@@ -3639,13 +3639,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2">
         <v>6</v>
@@ -3671,13 +3671,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2">
         <v>6</v>
@@ -3703,13 +3703,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E89" s="2">
         <v>6</v>
@@ -3735,13 +3735,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E90" s="2">
         <v>6</v>
@@ -3767,13 +3767,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E91" s="2">
         <v>6</v>
@@ -3799,13 +3799,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2">
         <v>6</v>
@@ -3831,13 +3831,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2">
         <v>6</v>
@@ -3863,13 +3863,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E94" s="2">
         <v>6</v>
@@ -3895,13 +3895,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95" s="2">
         <v>6</v>
@@ -3927,13 +3927,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E96" s="2">
         <v>6</v>
@@ -3959,13 +3959,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E97" s="2">
         <v>6</v>
@@ -3991,13 +3991,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E98" s="2">
         <v>6</v>
@@ -4023,13 +4023,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2">
         <v>6</v>
@@ -4055,13 +4055,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2">
         <v>6</v>
@@ -4087,13 +4087,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2">
         <v>6</v>
@@ -4119,13 +4119,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2">
         <v>6</v>
@@ -4151,13 +4151,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2">
         <v>6</v>
@@ -4183,13 +4183,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2">
         <v>6</v>
@@ -4215,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2">
         <v>6</v>
@@ -4247,13 +4247,13 @@
         <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2">
         <v>6</v>
@@ -4279,13 +4279,13 @@
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2">
         <v>6</v>
@@ -4311,13 +4311,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2">
         <v>6</v>
@@ -4343,13 +4343,13 @@
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2">
         <v>6</v>
@@ -4375,13 +4375,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2">
         <v>6</v>
@@ -4407,13 +4407,13 @@
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2">
         <v>6</v>
@@ -4439,13 +4439,13 @@
         <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2">
         <v>6</v>
@@ -4471,13 +4471,13 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2">
         <v>6</v>
@@ -4503,13 +4503,13 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2">
         <v>6</v>
@@ -4535,13 +4535,13 @@
         <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2">
         <v>6</v>
@@ -4567,13 +4567,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E116" s="2">
         <v>7</v>
@@ -4599,13 +4599,13 @@
         <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E117" s="2">
         <v>7</v>
@@ -4631,13 +4631,13 @@
         <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E118" s="2">
         <v>7</v>
@@ -4663,13 +4663,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E119" s="2">
         <v>7</v>
@@ -4695,13 +4695,13 @@
         <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2">
         <v>7</v>
@@ -4727,13 +4727,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2">
         <v>7</v>
@@ -4759,13 +4759,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2">
         <v>8</v>
@@ -4791,13 +4791,13 @@
         <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2">
         <v>8</v>
@@ -4823,13 +4823,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2">
         <v>8</v>
@@ -4855,13 +4855,13 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2">
         <v>8</v>
@@ -4887,13 +4887,13 @@
         <v>3</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2">
         <v>8</v>
@@ -4919,13 +4919,13 @@
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2">
         <v>8</v>
@@ -4951,13 +4951,13 @@
         <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2">
         <v>8</v>
@@ -4983,13 +4983,13 @@
         <v>3</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
@@ -5015,13 +5015,13 @@
         <v>3</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2">
         <v>8</v>
@@ -5047,13 +5047,13 @@
         <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2">
         <v>8</v>
@@ -5079,13 +5079,13 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2">
         <v>8</v>
@@ -5111,13 +5111,13 @@
         <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2">
         <v>8</v>
@@ -5140,48 +5140,48 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>6</v>
+      </c>
+      <c r="I134" s="2">
+        <v>100</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E134" s="2">
-        <v>1</v>
-      </c>
-      <c r="F134" s="2">
-        <v>1</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2">
-        <v>6</v>
-      </c>
-      <c r="I134" s="2">
-        <v>100</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E135" s="2">
         <v>1</v>
@@ -5204,16 +5204,16 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -5236,16 +5236,16 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -5263,21 +5263,21 @@
         <v>100</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E138" s="2">
         <v>1</v>
@@ -5295,21 +5295,21 @@
         <v>100</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
@@ -5332,16 +5332,16 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -5364,16 +5364,16 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E141" s="2">
         <v>1</v>
@@ -5391,21 +5391,21 @@
         <v>96.35</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2">
         <v>2</v>
@@ -5423,21 +5423,21 @@
         <v>93.18</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2">
         <v>2</v>
@@ -5460,16 +5460,16 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2">
         <v>2</v>
@@ -5492,16 +5492,16 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2">
         <v>2</v>
@@ -5524,16 +5524,16 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2">
         <v>2</v>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2">
         <v>2</v>
@@ -5588,16 +5588,16 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E148" s="2">
         <v>2</v>
@@ -5615,21 +5615,21 @@
         <v>100</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E149" s="2">
         <v>2</v>
@@ -5652,16 +5652,16 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2">
         <v>2</v>
@@ -5684,16 +5684,16 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E151" s="2">
         <v>2</v>
@@ -5716,16 +5716,16 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2">
         <v>2</v>
@@ -5748,16 +5748,16 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E153" s="2">
         <v>2</v>
@@ -5780,16 +5780,16 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E154" s="2">
         <v>2</v>
@@ -5812,16 +5812,16 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E155" s="2">
         <v>2</v>
@@ -5844,16 +5844,16 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E156" s="2">
         <v>2</v>
@@ -5876,16 +5876,16 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E157" s="2">
         <v>2</v>
@@ -5908,16 +5908,16 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E158" s="2">
         <v>2</v>
@@ -5935,21 +5935,21 @@
         <v>100</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E159" s="2">
         <v>2</v>
@@ -5967,21 +5967,21 @@
         <v>99.23</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E160" s="2">
         <v>2</v>
@@ -5999,21 +5999,21 @@
         <v>98.7</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E161" s="2">
         <v>2</v>
@@ -6036,16 +6036,16 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E162" s="2">
         <v>2</v>
@@ -6068,16 +6068,16 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E163" s="2">
         <v>2</v>
@@ -6100,16 +6100,16 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E164" s="2">
         <v>2</v>
@@ -6127,21 +6127,21 @@
         <v>98.54</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E165" s="2">
         <v>2</v>
@@ -6164,16 +6164,16 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E166" s="2">
         <v>2</v>
@@ -6196,16 +6196,16 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E167" s="2">
         <v>2</v>
@@ -6223,21 +6223,21 @@
         <v>96.95</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E168" s="2">
         <v>3</v>
@@ -6260,16 +6260,16 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E169" s="2">
         <v>3</v>
@@ -6292,16 +6292,16 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E170" s="2">
         <v>3</v>
@@ -6324,16 +6324,16 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E171" s="2">
         <v>3</v>
@@ -6351,21 +6351,21 @@
         <v>100</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E172" s="2">
         <v>3</v>
@@ -6383,21 +6383,21 @@
         <v>99.28</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E173" s="2">
         <v>3</v>
@@ -6415,21 +6415,21 @@
         <v>97.48</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E174" s="2">
         <v>3</v>
@@ -6452,16 +6452,16 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E175" s="2">
         <v>3</v>
@@ -6479,21 +6479,21 @@
         <v>100</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E176" s="2">
         <v>3</v>
@@ -6511,21 +6511,21 @@
         <v>98.46</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E177" s="2">
         <v>3</v>
@@ -6543,21 +6543,21 @@
         <v>100</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E178" s="2">
         <v>3</v>
@@ -6575,21 +6575,21 @@
         <v>93.23</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E179" s="2">
         <v>3</v>
@@ -6612,16 +6612,16 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E180" s="2">
         <v>3</v>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E181" s="2">
         <v>3</v>
@@ -6676,16 +6676,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E182" s="2">
         <v>3</v>
@@ -6703,21 +6703,21 @@
         <v>97.52</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E183" s="2">
         <v>3</v>
@@ -6740,16 +6740,16 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E184" s="2">
         <v>3</v>
@@ -6772,16 +6772,16 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E185" s="2">
         <v>3</v>
@@ -6804,16 +6804,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E186" s="2">
         <v>3</v>
@@ -6836,16 +6836,16 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E187" s="2">
         <v>3</v>
@@ -6863,21 +6863,21 @@
         <v>99.27</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E188" s="2">
         <v>3</v>
@@ -6895,21 +6895,21 @@
         <v>97.83</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E189" s="2">
         <v>3</v>
@@ -6932,16 +6932,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E190" s="2">
         <v>3</v>
@@ -6964,16 +6964,16 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E191" s="2">
         <v>3</v>
@@ -6996,16 +6996,16 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E192" s="2">
         <v>3</v>
@@ -7023,21 +7023,21 @@
         <v>97.52</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E193" s="2">
         <v>3</v>
@@ -7060,16 +7060,16 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E194" s="2">
         <v>3</v>
@@ -7092,16 +7092,16 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E195" s="2">
         <v>3</v>
@@ -7124,16 +7124,16 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E196" s="2">
         <v>4</v>
@@ -7151,21 +7151,21 @@
         <v>100</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E197" s="2">
         <v>4</v>
@@ -7183,21 +7183,21 @@
         <v>98.47</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E198" s="2">
         <v>4</v>
@@ -7215,21 +7215,21 @@
         <v>96.99</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E199" s="2">
         <v>4</v>
@@ -7247,21 +7247,21 @@
         <v>97.52</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E200" s="2">
         <v>4</v>
@@ -7284,16 +7284,16 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E201" s="2">
         <v>4</v>
@@ -7316,16 +7316,16 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E202" s="2">
         <v>4</v>
@@ -7343,21 +7343,21 @@
         <v>99.26</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E203" s="2">
         <v>4</v>
@@ -7380,16 +7380,16 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E204" s="2">
         <v>4</v>
@@ -7407,21 +7407,21 @@
         <v>99.23</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E205" s="2">
         <v>4</v>
@@ -7439,21 +7439,21 @@
         <v>97.52</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E206" s="2">
         <v>4</v>
@@ -7476,16 +7476,16 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E207" s="2">
         <v>4</v>
@@ -7503,21 +7503,21 @@
         <v>99.27</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E208" s="2">
         <v>4</v>
@@ -7540,16 +7540,16 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E209" s="2">
         <v>4</v>
@@ -7567,21 +7567,21 @@
         <v>97.06</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E210" s="2">
         <v>4</v>
@@ -7604,16 +7604,16 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E211" s="2">
         <v>4</v>
@@ -7636,16 +7636,16 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E212" s="2">
         <v>4</v>
@@ -7668,16 +7668,16 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E213" s="2">
         <v>4</v>
@@ -7700,16 +7700,16 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E214" s="2">
         <v>4</v>
@@ -7727,21 +7727,21 @@
         <v>97.81</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E215" s="2">
         <v>4</v>
@@ -7759,21 +7759,21 @@
         <v>96.3</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E216" s="2">
         <v>4</v>
@@ -7791,21 +7791,21 @@
         <v>99.28</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E217" s="2">
         <v>4</v>
@@ -7828,16 +7828,16 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E218" s="2">
         <v>4</v>
@@ -7855,21 +7855,21 @@
         <v>97.79</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E219" s="2">
         <v>4</v>
@@ -7887,21 +7887,21 @@
         <v>97.52</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E220" s="2">
         <v>4</v>
@@ -7924,16 +7924,16 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E221" s="2">
         <v>4</v>
@@ -7951,21 +7951,21 @@
         <v>97.78</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E222" s="2">
         <v>4</v>
@@ -7988,16 +7988,16 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E223" s="2">
         <v>4</v>
@@ -8015,21 +8015,21 @@
         <v>95.77</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E224" s="2">
         <v>4</v>
@@ -8047,21 +8047,21 @@
         <v>90.65</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E225" s="2">
         <v>4</v>
@@ -8079,21 +8079,21 @@
         <v>91.3</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E226" s="2">
         <v>4</v>
@@ -8111,21 +8111,21 @@
         <v>93.23</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E227" s="2">
         <v>4</v>
@@ -8143,21 +8143,21 @@
         <v>100</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E228" s="2">
         <v>4</v>
@@ -8180,16 +8180,16 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E229" s="2">
         <v>4</v>
@@ -8212,16 +8212,16 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E230" s="2">
         <v>4</v>
@@ -8239,21 +8239,21 @@
         <v>100</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E231" s="2">
         <v>4</v>
@@ -8271,21 +8271,21 @@
         <v>97.71</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E232" s="2">
         <v>4</v>
@@ -8303,21 +8303,21 @@
         <v>97.52</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E233" s="2">
         <v>4</v>
@@ -8340,16 +8340,16 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E234" s="2">
         <v>4</v>
@@ -8367,21 +8367,21 @@
         <v>95.52</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E235" s="2">
         <v>4</v>
@@ -8404,16 +8404,16 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E236" s="2">
         <v>4</v>
@@ -8436,16 +8436,16 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E237" s="2">
         <v>4</v>
@@ -8463,21 +8463,21 @@
         <v>100</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E238" s="2">
         <v>4</v>
@@ -8495,21 +8495,21 @@
         <v>100</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E239" s="2">
         <v>4</v>
@@ -8527,21 +8527,21 @@
         <v>97.71</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E240" s="2">
         <v>4</v>
@@ -8559,21 +8559,21 @@
         <v>97.52</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E241" s="2">
         <v>4</v>
@@ -8591,21 +8591,21 @@
         <v>97.71</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E242" s="2">
         <v>4</v>
@@ -8628,16 +8628,16 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E243" s="2">
         <v>4</v>
@@ -8660,16 +8660,16 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E244" s="2">
         <v>4</v>
@@ -8692,16 +8692,16 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E245" s="2">
         <v>5</v>
@@ -8724,16 +8724,16 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E246" s="2">
         <v>5</v>
@@ -8751,21 +8751,21 @@
         <v>99.22</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E247" s="2">
         <v>5</v>
@@ -8788,16 +8788,16 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E248" s="2">
         <v>6</v>
@@ -8820,16 +8820,16 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E249" s="2">
         <v>6</v>
@@ -8847,21 +8847,21 @@
         <v>98.54</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E250" s="2">
         <v>6</v>
@@ -8884,16 +8884,16 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E251" s="2">
         <v>6</v>
@@ -8916,16 +8916,16 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E252" s="2">
         <v>6</v>
@@ -8943,21 +8943,21 @@
         <v>97.71</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E253" s="2">
         <v>6</v>
@@ -8980,16 +8980,16 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E254" s="2">
         <v>6</v>
@@ -9012,16 +9012,16 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E255" s="2">
         <v>6</v>
@@ -9044,16 +9044,16 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E256" s="2">
         <v>6</v>
@@ -9076,16 +9076,16 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E257" s="2">
         <v>6</v>
@@ -9103,21 +9103,21 @@
         <v>90</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E258" s="2">
         <v>6</v>
@@ -9140,16 +9140,16 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E259" s="2">
         <v>6</v>
@@ -9167,21 +9167,21 @@
         <v>92.48</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E260" s="2">
         <v>6</v>
@@ -9199,21 +9199,21 @@
         <v>92.37</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E261" s="2">
         <v>6</v>
@@ -9236,16 +9236,16 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E262" s="2">
         <v>6</v>
@@ -9268,16 +9268,16 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E263" s="2">
         <v>6</v>
@@ -9300,16 +9300,16 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E264" s="2">
         <v>6</v>
@@ -9327,21 +9327,21 @@
         <v>93.23</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E265" s="2">
         <v>6</v>
@@ -9359,21 +9359,21 @@
         <v>100</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E266" s="2">
         <v>6</v>
@@ -9391,21 +9391,21 @@
         <v>89.31</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E267" s="2">
         <v>6</v>
@@ -9423,21 +9423,21 @@
         <v>100</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E268" s="2">
         <v>6</v>
@@ -9455,21 +9455,21 @@
         <v>96.21</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E269" s="2">
         <v>6</v>
@@ -9487,21 +9487,21 @@
         <v>97.71</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E270" s="2">
         <v>6</v>
@@ -9519,21 +9519,21 @@
         <v>98.47</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E271" s="2">
         <v>6</v>
@@ -9551,21 +9551,21 @@
         <v>97.52</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E272" s="2">
         <v>6</v>
@@ -9583,21 +9583,21 @@
         <v>93.94</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E273" s="2">
         <v>6</v>
@@ -9620,16 +9620,16 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E274" s="2">
         <v>6</v>
@@ -9647,21 +9647,21 @@
         <v>100</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E275" s="2">
         <v>6</v>
@@ -9684,16 +9684,16 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E276" s="2">
         <v>6</v>
@@ -9716,16 +9716,16 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E277" s="2">
         <v>6</v>
@@ -9743,21 +9743,21 @@
         <v>98.4</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E278" s="2">
         <v>6</v>
@@ -9775,21 +9775,21 @@
         <v>97.52</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E279" s="2">
         <v>6</v>
@@ -9812,16 +9812,16 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E280" s="2">
         <v>6</v>
@@ -9844,16 +9844,16 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E281" s="2">
         <v>6</v>
@@ -9871,21 +9871,21 @@
         <v>97.71</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E282" s="2">
         <v>6</v>
@@ -9903,21 +9903,21 @@
         <v>100</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E283" s="2">
         <v>6</v>
@@ -9940,16 +9940,16 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E284" s="2">
         <v>6</v>
@@ -9972,16 +9972,16 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E285" s="2">
         <v>6</v>
@@ -9999,21 +9999,21 @@
         <v>100</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E286" s="2">
         <v>6</v>
@@ -10031,21 +10031,21 @@
         <v>98.48</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E287" s="2">
         <v>6</v>
@@ -10063,21 +10063,21 @@
         <v>97.67</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E288" s="2">
         <v>6</v>
@@ -10095,21 +10095,21 @@
         <v>99.25</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E289" s="2">
         <v>6</v>
@@ -10127,21 +10127,21 @@
         <v>100</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E290" s="2">
         <v>6</v>
@@ -10164,16 +10164,16 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E291" s="2">
         <v>6</v>
@@ -10196,16 +10196,16 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E292" s="2">
         <v>6</v>
@@ -10223,21 +10223,21 @@
         <v>98.47</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E293" s="2">
         <v>6</v>
@@ -10255,21 +10255,21 @@
         <v>97.52</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E294" s="2">
         <v>6</v>
@@ -10292,16 +10292,16 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E295" s="2">
         <v>6</v>
@@ -10319,21 +10319,21 @@
         <v>100</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E296" s="2">
         <v>6</v>
@@ -10351,21 +10351,21 @@
         <v>98.46</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E297" s="2">
         <v>6</v>
@@ -10388,16 +10388,16 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E298" s="2">
         <v>6</v>
@@ -10415,21 +10415,21 @@
         <v>97.52</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E299" s="2">
         <v>6</v>
@@ -10452,16 +10452,16 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E300" s="2">
         <v>7</v>
@@ -10484,16 +10484,16 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E301" s="2">
         <v>7</v>
@@ -10516,16 +10516,16 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E302" s="2">
         <v>7</v>
@@ -10543,21 +10543,21 @@
         <v>100</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E303" s="2">
         <v>7</v>
@@ -10580,16 +10580,16 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E304" s="2">
         <v>7</v>
@@ -10607,21 +10607,21 @@
         <v>96.35</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E305" s="2">
         <v>7</v>
@@ -10639,21 +10639,21 @@
         <v>100</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E306" s="2">
         <v>7</v>
@@ -10671,21 +10671,21 @@
         <v>97.52</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E307" s="2">
         <v>7</v>
@@ -10708,16 +10708,16 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E308" s="2">
         <v>7</v>
@@ -10740,16 +10740,16 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E309" s="2">
         <v>7</v>
@@ -10767,21 +10767,21 @@
         <v>96.35</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E310" s="2">
         <v>7</v>
@@ -10804,16 +10804,16 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E311" s="2">
         <v>7</v>
@@ -10831,21 +10831,21 @@
         <v>100</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E312" s="2">
         <v>8</v>
@@ -10868,16 +10868,16 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E313" s="2">
         <v>8</v>
@@ -10895,21 +10895,21 @@
         <v>98.46</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E314" s="2">
         <v>8</v>
@@ -10932,16 +10932,16 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E315" s="2">
         <v>8</v>
@@ -10959,21 +10959,21 @@
         <v>99.27</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E316" s="2">
         <v>8</v>
@@ -10991,21 +10991,21 @@
         <v>99.24</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E317" s="2">
         <v>8</v>
@@ -11023,21 +11023,21 @@
         <v>97.52</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E318" s="2">
         <v>8</v>
@@ -11060,16 +11060,16 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E319" s="2">
         <v>8</v>
@@ -11087,21 +11087,21 @@
         <v>97.52</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E320" s="2">
         <v>8</v>
@@ -11124,16 +11124,16 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E321" s="2">
         <v>8</v>
@@ -11151,21 +11151,21 @@
         <v>97.71</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E322" s="2">
         <v>8</v>
@@ -11183,21 +11183,21 @@
         <v>100</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E323" s="2">
         <v>8</v>
@@ -11215,21 +11215,21 @@
         <v>97.52</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E324" s="2">
         <v>8</v>
@@ -11252,16 +11252,16 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E325" s="2">
         <v>8</v>
@@ -11284,16 +11284,16 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E326" s="2">
         <v>8</v>

--- a/example_files/pt-br/xlsx/1_aplicacao_threshold/input/input_exemplo.xlsx
+++ b/example_files/pt-br/xlsx/1_aplicacao_threshold/input/input_exemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c0c8761d3d702e/Nossa_Trabalho_OneDrive/CEP/resultados_seq_dez23/dev/analise_metabarcoding/example_files/pt-br/xlsx/1_aplicacao_threshold/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{750915E5-3FD3-4663-9BF3-25596A26A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23B2716-0393-405C-8791-2C1565AC5863}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{750915E5-3FD3-4663-9BF3-25596A26A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B008C2-20C2-494A-8A81-B5C44A21B20E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D191B68D-3CD3-4D97-91AB-70DE429BCBE4}"/>
+    <workbookView minimized="1" xWindow="4455" yWindow="-180" windowWidth="21600" windowHeight="11835" xr2:uid="{D191B68D-3CD3-4D97-91AB-70DE429BCBE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -547,6 +547,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,15 +873,15 @@
   <dimension ref="A1:J326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="8.85546875" style="2"/>
     <col min="10" max="10" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
